--- a/medicine/Psychotrope/Kiuchi_Brewery/Kiuchi_Brewery.xlsx
+++ b/medicine/Psychotrope/Kiuchi_Brewery/Kiuchi_Brewery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Kiuchi Brewery (木内酒造) est une brasserie japonaise située à Naka, dans la préfecture d'Ibaraki. Cette brasserie fondée en 1823 produit de la bière, du saké et du shochu. La brasserie produit des bières à la mode européenne et d'autres plus traditionnelles dont la bière Hitachino Nest XH maturée dans les fûts qui servent au shochu.
 </t>
@@ -511,7 +523,9 @@
           <t>Bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bières nommées Hitachino Nest:
 Hitachino Nest XH (bière dont le gout est voisin des bières belges fortes)
@@ -552,7 +566,9 @@
           <t>Saké</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Gekkakow
 Kurakagami
@@ -587,7 +603,9 @@
           <t>Shochu</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Kiuchi</t>
         </is>
